--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_st01.xlsx
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]What do you think of the whole “Diαbolic Crisis?”
+    <t xml:space="preserve">[name="Muelsyse"]What do you think of the whole 'Diαbolic Crisis?'
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mayer"]But the biggest impression I have of her is she's really cautious, going from what I know about the “Diαbolic Crisis.”
+    <t xml:space="preserve">[name="Mayer"]But the biggest impression I have of her is she's really cautious, going from what I know about the 'Diαbolic Crisis.'
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mayer"]There were rumors among my coworkers that the “Diαbolic Crisis” was some kinda conspiracy. I don't know that much about that stuff, though.
+    <t xml:space="preserve">[name="Mayer"]There were rumors among my coworkers that the 'Diαbolic Crisis' was some kinda conspiracy. I don't know that much about that stuff, though.
 </t>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]But well, there's one thing I can tell you. Saria didn't leave Rhine Lab just because of the “Diαbolic Crisis.” It's just one of a whole string of events that led to it, and there's more to it.
+    <t xml:space="preserve">[name="Muelsyse"]But well, there's one thing I can tell you. Saria didn't leave Rhine Lab just because of the 'Diαbolic Crisis.' It's just one of a whole string of events that led to it, and there's more to it.
 </t>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]But that whole string of events, the “Diαbolic Crisis” included, meant that someone was trying to cross that line. They might even have crossed it already.
+    <t xml:space="preserve">[name="Muelsyse"]But that whole string of events, the 'Diαbolic Crisis' included, meant that someone was trying to cross that line. They might even have crossed it already.
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]You see? You're honest and kind, but you couldn't care less. You care more about your research, your “Mibo.”
+    <t xml:space="preserve">[name="Muelsyse"]You see? You're honest and kind, but you couldn't care less. You care more about your research, your 'Mibo.'
 </t>
   </si>
   <si>
@@ -1572,7 +1572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]Hehe, you think it's reckless, and you'd be right under normal circumstances. It's a risky move if he didn't have his “prestige,” or perhaps “influence” is the better word to use here.
+    <t xml:space="preserve">[name="Muelsyse"]Hehe, you think it's reckless, and you'd be right under normal circumstances. It's a risky move if he didn't have his 'prestige,' or perhaps 'influence' is the better word to use here.
 </t>
   </si>
   <si>
@@ -1584,7 +1584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]That's because what he said was also a threat. He was telling her, “You could tell him, but it's not going to do you any good.”
+    <t xml:space="preserve">[name="Muelsyse"]That's because what he said was also a threat. He was telling her, 'You could tell him, but it's not going to do you any good.'
 </t>
   </si>
   <si>
